--- a/BBDD/B_AP BBDD.xlsx
+++ b/BBDD/B_AP BBDD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">Técnica inmunohistoquimica para marcadores tumorales (ALK-PDL1-ROS1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Técnica inmunohistoquimica para marcadores tumorales (ALK-PDL1-ROS1) c/u</t>
   </si>
 </sst>
 </file>
@@ -14798,6 +14801,1266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B410" t="s">
+        <v>11</v>
+      </c>
+      <c r="C410" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" t="s">
+        <v>13</v>
+      </c>
+      <c r="E410" t="s">
+        <v>35</v>
+      </c>
+      <c r="F410" t="n">
+        <v>4</v>
+      </c>
+      <c r="G410" t="n">
+        <v>23320</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>4</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="n">
+        <v>23320</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B411" t="s">
+        <v>11</v>
+      </c>
+      <c r="C411" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411" t="s">
+        <v>15</v>
+      </c>
+      <c r="E411" t="s">
+        <v>36</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B412" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412" t="s">
+        <v>17</v>
+      </c>
+      <c r="E412" t="s">
+        <v>37</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" t="s">
+        <v>19</v>
+      </c>
+      <c r="E413" t="s">
+        <v>38</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B414" t="s">
+        <v>11</v>
+      </c>
+      <c r="C414" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" t="s">
+        <v>21</v>
+      </c>
+      <c r="E414" t="s">
+        <v>39</v>
+      </c>
+      <c r="F414" t="n">
+        <v>26</v>
+      </c>
+      <c r="G414" t="n">
+        <v>461500</v>
+      </c>
+      <c r="H414" t="n">
+        <v>9</v>
+      </c>
+      <c r="I414" t="n">
+        <v>17</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
+      <c r="K414" t="n">
+        <v>301750</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B415" t="s">
+        <v>11</v>
+      </c>
+      <c r="C415" t="s">
+        <v>12</v>
+      </c>
+      <c r="D415" t="s">
+        <v>23</v>
+      </c>
+      <c r="E415" t="s">
+        <v>40</v>
+      </c>
+      <c r="F415" t="n">
+        <v>1</v>
+      </c>
+      <c r="G415" t="n">
+        <v>23620</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K415" t="n">
+        <v>23620</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B416" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" t="s">
+        <v>25</v>
+      </c>
+      <c r="E416" t="s">
+        <v>26</v>
+      </c>
+      <c r="F416" t="n">
+        <v>1</v>
+      </c>
+      <c r="G416" t="n">
+        <v>23620</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="n">
+        <v>1</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K416" t="n">
+        <v>23620</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417" t="s">
+        <v>12</v>
+      </c>
+      <c r="D417" t="s">
+        <v>27</v>
+      </c>
+      <c r="E417" t="s">
+        <v>41</v>
+      </c>
+      <c r="F417" t="n">
+        <v>182</v>
+      </c>
+      <c r="G417" t="n">
+        <v>2167620</v>
+      </c>
+      <c r="H417" t="n">
+        <v>60</v>
+      </c>
+      <c r="I417" t="n">
+        <v>122</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
+      <c r="K417" t="n">
+        <v>1453020</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B418" t="s">
+        <v>11</v>
+      </c>
+      <c r="C418" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418" t="s">
+        <v>29</v>
+      </c>
+      <c r="E418" t="s">
+        <v>30</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B419" t="s">
+        <v>11</v>
+      </c>
+      <c r="C419" t="s">
+        <v>12</v>
+      </c>
+      <c r="D419" t="s">
+        <v>31</v>
+      </c>
+      <c r="E419" t="s">
+        <v>32</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B420" t="s">
+        <v>11</v>
+      </c>
+      <c r="C420" t="s">
+        <v>12</v>
+      </c>
+      <c r="D420" t="s">
+        <v>33</v>
+      </c>
+      <c r="E420" t="s">
+        <v>34</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+      <c r="C421" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421" t="s">
+        <v>42</v>
+      </c>
+      <c r="E421" t="s">
+        <v>44</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B422" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" t="s">
+        <v>12</v>
+      </c>
+      <c r="D422" t="s">
+        <v>13</v>
+      </c>
+      <c r="E422" t="s">
+        <v>35</v>
+      </c>
+      <c r="F422" t="n">
+        <v>2</v>
+      </c>
+      <c r="G422" t="n">
+        <v>11660</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>2</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0</v>
+      </c>
+      <c r="K422" t="n">
+        <v>11660</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" t="s">
+        <v>15</v>
+      </c>
+      <c r="E423" t="s">
+        <v>36</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B424" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" t="s">
+        <v>12</v>
+      </c>
+      <c r="D424" t="s">
+        <v>17</v>
+      </c>
+      <c r="E424" t="s">
+        <v>37</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B425" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" t="s">
+        <v>19</v>
+      </c>
+      <c r="E425" t="s">
+        <v>38</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B426" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" t="s">
+        <v>12</v>
+      </c>
+      <c r="D426" t="s">
+        <v>21</v>
+      </c>
+      <c r="E426" t="s">
+        <v>39</v>
+      </c>
+      <c r="F426" t="n">
+        <v>33</v>
+      </c>
+      <c r="G426" t="n">
+        <v>585750</v>
+      </c>
+      <c r="H426" t="n">
+        <v>8</v>
+      </c>
+      <c r="I426" t="n">
+        <v>25</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
+      <c r="K426" t="n">
+        <v>443750</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B427" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" t="s">
+        <v>23</v>
+      </c>
+      <c r="E427" t="s">
+        <v>40</v>
+      </c>
+      <c r="F427" t="n">
+        <v>1</v>
+      </c>
+      <c r="G427" t="n">
+        <v>23620</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>1</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K427" t="n">
+        <v>23620</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" t="s">
+        <v>25</v>
+      </c>
+      <c r="E428" t="s">
+        <v>26</v>
+      </c>
+      <c r="F428" t="n">
+        <v>3</v>
+      </c>
+      <c r="G428" t="n">
+        <v>70860</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0</v>
+      </c>
+      <c r="K428" t="n">
+        <v>70860</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" t="s">
+        <v>12</v>
+      </c>
+      <c r="D429" t="s">
+        <v>27</v>
+      </c>
+      <c r="E429" t="s">
+        <v>41</v>
+      </c>
+      <c r="F429" t="n">
+        <v>248</v>
+      </c>
+      <c r="G429" t="n">
+        <v>2953680</v>
+      </c>
+      <c r="H429" t="n">
+        <v>64</v>
+      </c>
+      <c r="I429" t="n">
+        <v>184</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K429" t="n">
+        <v>2191440</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" t="s">
+        <v>29</v>
+      </c>
+      <c r="E430" t="s">
+        <v>30</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B431" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" t="s">
+        <v>31</v>
+      </c>
+      <c r="E431" t="s">
+        <v>32</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B432" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" t="s">
+        <v>33</v>
+      </c>
+      <c r="E432" t="s">
+        <v>34</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" t="s">
+        <v>12</v>
+      </c>
+      <c r="D433" t="s">
+        <v>42</v>
+      </c>
+      <c r="E433" t="s">
+        <v>44</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B434" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" t="s">
+        <v>13</v>
+      </c>
+      <c r="E434" t="s">
+        <v>35</v>
+      </c>
+      <c r="F434" t="n">
+        <v>8</v>
+      </c>
+      <c r="G434" t="n">
+        <v>46640</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>8</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="n">
+        <v>46640</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B435" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435" t="s">
+        <v>15</v>
+      </c>
+      <c r="E435" t="s">
+        <v>36</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B436" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" t="s">
+        <v>17</v>
+      </c>
+      <c r="E436" t="s">
+        <v>37</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437" t="s">
+        <v>19</v>
+      </c>
+      <c r="E437" t="s">
+        <v>38</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B438" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>12</v>
+      </c>
+      <c r="D438" t="s">
+        <v>21</v>
+      </c>
+      <c r="E438" t="s">
+        <v>39</v>
+      </c>
+      <c r="F438" t="n">
+        <v>42</v>
+      </c>
+      <c r="G438" t="n">
+        <v>745500</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>42</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K438" t="n">
+        <v>745500</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" t="s">
+        <v>23</v>
+      </c>
+      <c r="E439" t="s">
+        <v>40</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B440" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" t="s">
+        <v>12</v>
+      </c>
+      <c r="D440" t="s">
+        <v>25</v>
+      </c>
+      <c r="E440" t="s">
+        <v>26</v>
+      </c>
+      <c r="F440" t="n">
+        <v>6</v>
+      </c>
+      <c r="G440" t="n">
+        <v>141720</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>6</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="n">
+        <v>141720</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" t="s">
+        <v>27</v>
+      </c>
+      <c r="E441" t="s">
+        <v>41</v>
+      </c>
+      <c r="F441" t="n">
+        <v>153</v>
+      </c>
+      <c r="G441" t="n">
+        <v>1822230</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>153</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="K441" t="n">
+        <v>1822230</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B442" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442" t="s">
+        <v>12</v>
+      </c>
+      <c r="D442" t="s">
+        <v>29</v>
+      </c>
+      <c r="E442" t="s">
+        <v>30</v>
+      </c>
+      <c r="F442" t="n">
+        <v>1</v>
+      </c>
+      <c r="G442" t="n">
+        <v>64950</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="n">
+        <v>1</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="n">
+        <v>64950</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B443" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" t="s">
+        <v>31</v>
+      </c>
+      <c r="E443" t="s">
+        <v>32</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1</v>
+      </c>
+      <c r="G443" t="n">
+        <v>51920</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>1</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="n">
+        <v>51920</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B444" t="s">
+        <v>11</v>
+      </c>
+      <c r="C444" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" t="s">
+        <v>33</v>
+      </c>
+      <c r="E444" t="s">
+        <v>34</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" t="s">
+        <v>42</v>
+      </c>
+      <c r="E445" t="s">
+        <v>44</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
